--- a/Code/Results/Cases/Case_8_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.07578866732142</v>
+        <v>11.6446794653533</v>
       </c>
       <c r="C2">
-        <v>7.34532572591631</v>
+        <v>8.465772030861867</v>
       </c>
       <c r="D2">
-        <v>2.994215933871418</v>
+        <v>1.731484939011415</v>
       </c>
       <c r="E2">
-        <v>4.439546186980259</v>
+        <v>5.366257816625195</v>
       </c>
       <c r="F2">
-        <v>45.88159427108071</v>
+        <v>38.18522479673295</v>
       </c>
       <c r="G2">
-        <v>2.17733323243</v>
+        <v>12.88099048917736</v>
       </c>
       <c r="H2">
-        <v>5.459845566699156</v>
+        <v>4.516389676317975</v>
       </c>
       <c r="I2">
-        <v>5.92034147379668</v>
+        <v>4.921498184997343</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>32.5088295510339</v>
+        <v>26.4478707176503</v>
       </c>
       <c r="L2">
-        <v>5.590423629018217</v>
+        <v>19.98847078295255</v>
       </c>
       <c r="M2">
-        <v>10.95028279588603</v>
+        <v>19.32996374277668</v>
       </c>
       <c r="N2">
-        <v>5.916499363200757</v>
+        <v>5.633536020311792</v>
       </c>
       <c r="O2">
-        <v>9.458963080076533</v>
+        <v>10.90976109370248</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.555259522173324</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.456770699474033</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.39317820701889</v>
+        <v>10.92889318335967</v>
       </c>
       <c r="C3">
-        <v>6.921907586522839</v>
+        <v>7.860250557511124</v>
       </c>
       <c r="D3">
-        <v>2.996894148244413</v>
+        <v>1.706635923378751</v>
       </c>
       <c r="E3">
-        <v>4.312614542489412</v>
+        <v>5.284509918913751</v>
       </c>
       <c r="F3">
-        <v>44.45125276845386</v>
+        <v>37.21649270958101</v>
       </c>
       <c r="G3">
-        <v>2.183026198545436</v>
+        <v>13.56434246123849</v>
       </c>
       <c r="H3">
-        <v>5.733626130091316</v>
+        <v>4.736932697812417</v>
       </c>
       <c r="I3">
-        <v>6.152753279374858</v>
+        <v>5.098008826925827</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>31.650167969168</v>
+        <v>25.96914026846561</v>
       </c>
       <c r="L3">
-        <v>5.496732604245455</v>
+        <v>19.75341320954583</v>
       </c>
       <c r="M3">
-        <v>10.42088361448188</v>
+        <v>18.87821435966955</v>
       </c>
       <c r="N3">
-        <v>5.786306243071689</v>
+        <v>5.575487064994241</v>
       </c>
       <c r="O3">
-        <v>9.173016937418483</v>
+        <v>10.21281729496033</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.411128593534143</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.132328298090901</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.95525829268274</v>
+        <v>10.46516515539929</v>
       </c>
       <c r="C4">
-        <v>6.657977584857397</v>
+        <v>7.469240434713901</v>
       </c>
       <c r="D4">
-        <v>2.997021894190358</v>
+        <v>1.690737074243286</v>
       </c>
       <c r="E4">
-        <v>4.232616686480985</v>
+        <v>5.233252085713476</v>
       </c>
       <c r="F4">
-        <v>43.54435018028114</v>
+        <v>36.60040466676905</v>
       </c>
       <c r="G4">
-        <v>2.186634845282576</v>
+        <v>13.99815415973693</v>
       </c>
       <c r="H4">
-        <v>5.907401193150814</v>
+        <v>4.877175227580334</v>
       </c>
       <c r="I4">
-        <v>6.300715278913565</v>
+        <v>5.210889121551775</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>31.10484497162272</v>
+        <v>25.66287676176481</v>
       </c>
       <c r="L4">
-        <v>5.436975239420555</v>
+        <v>19.59503458194204</v>
       </c>
       <c r="M4">
-        <v>10.0866030038306</v>
+        <v>18.60450844381189</v>
       </c>
       <c r="N4">
-        <v>5.705752668236954</v>
+        <v>5.538303413710209</v>
       </c>
       <c r="O4">
-        <v>8.995039429784422</v>
+        <v>9.804495901332508</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.322093345141344</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.928718181605028</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.77123494239126</v>
+        <v>10.26922913049085</v>
       </c>
       <c r="C5">
-        <v>6.55533430276825</v>
+        <v>7.309768948516328</v>
       </c>
       <c r="D5">
-        <v>2.994236086311376</v>
+        <v>1.684416796425363</v>
       </c>
       <c r="E5">
-        <v>4.199457374444317</v>
+        <v>5.212128015379616</v>
       </c>
       <c r="F5">
-        <v>43.13639736046731</v>
+        <v>36.31862381468839</v>
       </c>
       <c r="G5">
-        <v>2.188147942455396</v>
+        <v>14.1800811953733</v>
       </c>
       <c r="H5">
-        <v>5.980327172847732</v>
+        <v>4.936049011300478</v>
       </c>
       <c r="I5">
-        <v>6.364657185373219</v>
+        <v>5.260636608041495</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30.85423135312609</v>
+        <v>25.51625782934887</v>
       </c>
       <c r="L5">
-        <v>5.410849244437546</v>
+        <v>19.51105205967749</v>
       </c>
       <c r="M5">
-        <v>9.949478680777766</v>
+        <v>18.48161465187218</v>
       </c>
       <c r="N5">
-        <v>5.674163956676597</v>
+        <v>5.521991409678136</v>
       </c>
       <c r="O5">
-        <v>8.922890476335562</v>
+        <v>9.640552847995714</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.286821230455429</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.845482247109837</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.73919554812511</v>
+        <v>10.23518893394511</v>
       </c>
       <c r="C6">
-        <v>6.545290946731291</v>
+        <v>7.288773152690382</v>
       </c>
       <c r="D6">
-        <v>2.990760339538026</v>
+        <v>1.683789579617816</v>
       </c>
       <c r="E6">
-        <v>4.193881809852374</v>
+        <v>5.208648289953129</v>
       </c>
       <c r="F6">
-        <v>43.0296574083541</v>
+        <v>36.24025458697975</v>
       </c>
       <c r="G6">
-        <v>2.188417415928435</v>
+        <v>14.21234931786062</v>
       </c>
       <c r="H6">
-        <v>5.993326665281455</v>
+        <v>4.946499455053754</v>
       </c>
       <c r="I6">
-        <v>6.378253014990951</v>
+        <v>5.272273766733818</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30.78295951456038</v>
+        <v>25.46876231437753</v>
       </c>
       <c r="L6">
-        <v>5.405000882319848</v>
+        <v>19.47748209433201</v>
       </c>
       <c r="M6">
-        <v>9.928102810607053</v>
+        <v>18.44597102562402</v>
       </c>
       <c r="N6">
-        <v>5.670589276027728</v>
+        <v>5.518322740752827</v>
       </c>
       <c r="O6">
-        <v>8.9119757950197</v>
+        <v>9.614276254923141</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.282323307423453</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.832505915017901</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94951804219486</v>
+        <v>10.46915621819126</v>
       </c>
       <c r="C7">
-        <v>6.675433159899452</v>
+        <v>7.435721437962388</v>
       </c>
       <c r="D7">
-        <v>2.988826728996792</v>
+        <v>1.69682402770262</v>
       </c>
       <c r="E7">
-        <v>4.232069170666561</v>
+        <v>5.237770195646848</v>
       </c>
       <c r="F7">
-        <v>43.43461639845097</v>
+        <v>36.36429628402627</v>
       </c>
       <c r="G7">
-        <v>2.186699628722845</v>
+        <v>14.0505567793825</v>
       </c>
       <c r="H7">
-        <v>5.910547100099154</v>
+        <v>4.882293853442139</v>
       </c>
       <c r="I7">
-        <v>6.309276549081737</v>
+        <v>5.222864731641815</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>31.02192142655727</v>
+        <v>25.50205136845901</v>
       </c>
       <c r="L7">
-        <v>5.432629783197366</v>
+        <v>19.46105776059617</v>
       </c>
       <c r="M7">
-        <v>10.08880284557996</v>
+        <v>18.49546295510526</v>
       </c>
       <c r="N7">
-        <v>5.709874732196173</v>
+        <v>5.532747903418531</v>
       </c>
       <c r="O7">
-        <v>8.997010615180889</v>
+        <v>9.796582081268463</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.324294869095469</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.933316090927136</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.84020697799532</v>
+        <v>11.42850982945595</v>
       </c>
       <c r="C8">
-        <v>7.223360840816202</v>
+        <v>8.136898699332571</v>
       </c>
       <c r="D8">
-        <v>2.984799351394921</v>
+        <v>1.7482391893074</v>
       </c>
       <c r="E8">
-        <v>4.396063799402053</v>
+        <v>5.353853097025219</v>
       </c>
       <c r="F8">
-        <v>45.26203374960886</v>
+        <v>37.27773212056078</v>
       </c>
       <c r="G8">
-        <v>2.179330027571743</v>
+        <v>13.30296452149515</v>
       </c>
       <c r="H8">
-        <v>5.555862975186431</v>
+        <v>4.602104969230294</v>
       </c>
       <c r="I8">
-        <v>6.00915333970311</v>
+        <v>5.000601224676507</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>32.11488114477893</v>
+        <v>25.8968054999598</v>
       </c>
       <c r="L8">
-        <v>5.553454143778176</v>
+        <v>19.59437560774447</v>
       </c>
       <c r="M8">
-        <v>10.77465730329242</v>
+        <v>18.90133174522673</v>
       </c>
       <c r="N8">
-        <v>5.877613053009333</v>
+        <v>5.601746133037695</v>
       </c>
       <c r="O8">
-        <v>9.364606449790443</v>
+        <v>10.64610639148995</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.507182370024789</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.35917395968991</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.43839215717032</v>
+        <v>13.12941921326429</v>
       </c>
       <c r="C9">
-        <v>8.321919528345209</v>
+        <v>9.50747010613485</v>
       </c>
       <c r="D9">
-        <v>2.978882808665295</v>
+        <v>1.816616578565872</v>
       </c>
       <c r="E9">
-        <v>4.702008282460884</v>
+        <v>5.55535084145567</v>
       </c>
       <c r="F9">
-        <v>48.77933630989073</v>
+        <v>39.57690596497805</v>
       </c>
       <c r="G9">
-        <v>2.165670956650979</v>
+        <v>11.71308735448063</v>
       </c>
       <c r="H9">
-        <v>4.900306441097487</v>
+        <v>4.077710889577114</v>
       </c>
       <c r="I9">
-        <v>5.448536510446868</v>
+        <v>4.576389283698653</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>34.24197744983552</v>
+        <v>27.02898546826738</v>
       </c>
       <c r="L9">
-        <v>5.779782513214325</v>
+        <v>20.1245255658804</v>
       </c>
       <c r="M9">
-        <v>12.03363957375423</v>
+        <v>20.03189848462776</v>
       </c>
       <c r="N9">
-        <v>6.192897399709697</v>
+        <v>5.739407228715746</v>
       </c>
       <c r="O9">
-        <v>10.05796682580321</v>
+        <v>12.24280786292687</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.857502433579113</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.139094210252</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.52074225401017</v>
+        <v>14.31875328835984</v>
       </c>
       <c r="C10">
-        <v>9.142201030563117</v>
+        <v>10.20981575786987</v>
       </c>
       <c r="D10">
-        <v>2.940653597487943</v>
+        <v>1.931464610671819</v>
       </c>
       <c r="E10">
-        <v>4.885925285828352</v>
+        <v>5.693770668172434</v>
       </c>
       <c r="F10">
-        <v>50.70179251237034</v>
+        <v>40.03792908729066</v>
       </c>
       <c r="G10">
-        <v>2.156368262136011</v>
+        <v>11.23984052443475</v>
       </c>
       <c r="H10">
-        <v>4.471671900453171</v>
+        <v>3.753186879953422</v>
       </c>
       <c r="I10">
-        <v>5.074259362053482</v>
+        <v>4.309788187075539</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.35132463489688</v>
+        <v>27.0585714075575</v>
       </c>
       <c r="L10">
-        <v>5.901710172496553</v>
+        <v>19.88175787862913</v>
       </c>
       <c r="M10">
-        <v>12.91117167328529</v>
+        <v>20.31312939194175</v>
       </c>
       <c r="N10">
-        <v>6.365636745787</v>
+        <v>5.800278803259633</v>
       </c>
       <c r="O10">
-        <v>10.51468265007949</v>
+        <v>13.25281154694108</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.04299732855809</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.65947287268868</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.05565683996694</v>
+        <v>14.95647950386495</v>
       </c>
       <c r="C11">
-        <v>9.507513614315217</v>
+        <v>10.04948984461721</v>
       </c>
       <c r="D11">
-        <v>2.734804179423529</v>
+        <v>2.363846893903991</v>
       </c>
       <c r="E11">
-        <v>4.76667173769008</v>
+        <v>5.56804899180022</v>
       </c>
       <c r="F11">
-        <v>47.54681684500017</v>
+        <v>36.02321993408351</v>
       </c>
       <c r="G11">
-        <v>2.154124664986544</v>
+        <v>13.12796387757905</v>
       </c>
       <c r="H11">
-        <v>4.933149909504206</v>
+        <v>4.328052228192485</v>
       </c>
       <c r="I11">
-        <v>5.004898040780269</v>
+        <v>4.281565870547185</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.03772685981184</v>
+        <v>24.34418163249622</v>
       </c>
       <c r="L11">
-        <v>5.723873944040111</v>
+        <v>17.70352518159695</v>
       </c>
       <c r="M11">
-        <v>13.35347936457796</v>
+        <v>18.3919566439707</v>
       </c>
       <c r="N11">
-        <v>5.977523892067574</v>
+        <v>5.699350025704176</v>
       </c>
       <c r="O11">
-        <v>10.40830673958954</v>
+        <v>13.60716266776912</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.592189972750054</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.56911602575701</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28908156869245</v>
+        <v>15.24012210991912</v>
       </c>
       <c r="C12">
-        <v>9.626035827438658</v>
+        <v>9.875954578783899</v>
       </c>
       <c r="D12">
-        <v>2.600579416410808</v>
+        <v>2.625537428076179</v>
       </c>
       <c r="E12">
-        <v>4.733296949767314</v>
+        <v>5.483342107980431</v>
       </c>
       <c r="F12">
-        <v>44.62420425326725</v>
+        <v>33.14865125619314</v>
       </c>
       <c r="G12">
-        <v>2.153954558646313</v>
+        <v>14.38554849843484</v>
       </c>
       <c r="H12">
-        <v>5.841640772766498</v>
+        <v>5.337719415856041</v>
       </c>
       <c r="I12">
-        <v>5.004616577949321</v>
+        <v>4.284196104241504</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.98523422067325</v>
+        <v>22.51152399985273</v>
       </c>
       <c r="L12">
-        <v>5.626842073701353</v>
+        <v>16.29062549038445</v>
       </c>
       <c r="M12">
-        <v>13.53936156930624</v>
+        <v>17.0382947514181</v>
       </c>
       <c r="N12">
-        <v>5.627077541707581</v>
+        <v>5.683538978526506</v>
       </c>
       <c r="O12">
-        <v>10.21235011307203</v>
+        <v>13.72769161255966</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.190207446373163</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.36547287226484</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.30807619622045</v>
+        <v>15.25634261346039</v>
       </c>
       <c r="C13">
-        <v>9.586139771029883</v>
+        <v>9.776850470488743</v>
       </c>
       <c r="D13">
-        <v>2.503242951460529</v>
+        <v>2.676452011952139</v>
       </c>
       <c r="E13">
-        <v>4.762233612103013</v>
+        <v>5.446482060085895</v>
       </c>
       <c r="F13">
-        <v>41.52207120272946</v>
+        <v>31.0842453662659</v>
       </c>
       <c r="G13">
-        <v>2.155437662360529</v>
+        <v>14.1955277704491</v>
       </c>
       <c r="H13">
-        <v>6.970390242500224</v>
+        <v>6.529475769063324</v>
       </c>
       <c r="I13">
-        <v>5.069598492555656</v>
+        <v>4.323653540416262</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.88336393271888</v>
+        <v>21.28324838518859</v>
       </c>
       <c r="L13">
-        <v>5.581416440551214</v>
+        <v>15.38079105779873</v>
       </c>
       <c r="M13">
-        <v>13.5491355921907</v>
+        <v>16.08981706419963</v>
       </c>
       <c r="N13">
-        <v>5.292875383129124</v>
+        <v>5.72070839465695</v>
       </c>
       <c r="O13">
-        <v>9.936403267590739</v>
+        <v>13.70057390950462</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.809923761026822</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.05584538527765</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.22424121059004</v>
+        <v>15.14663654408875</v>
       </c>
       <c r="C14">
-        <v>9.490554421219029</v>
+        <v>9.739173914437345</v>
       </c>
       <c r="D14">
-        <v>2.454620602486032</v>
+        <v>2.623610335211024</v>
       </c>
       <c r="E14">
-        <v>4.823028511789589</v>
+        <v>5.471031399339469</v>
       </c>
       <c r="F14">
-        <v>39.2400761858225</v>
+        <v>29.94343084667773</v>
       </c>
       <c r="G14">
-        <v>2.157220833385507</v>
+        <v>13.46157220341501</v>
       </c>
       <c r="H14">
-        <v>7.839264999585311</v>
+        <v>7.426443429534596</v>
       </c>
       <c r="I14">
-        <v>5.146302912380329</v>
+        <v>4.371303827037096</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.37914274986293</v>
+        <v>20.649740177161</v>
       </c>
       <c r="L14">
-        <v>5.582851392592867</v>
+        <v>14.92701450258622</v>
       </c>
       <c r="M14">
-        <v>13.4777446931661</v>
+        <v>15.58113120598419</v>
       </c>
       <c r="N14">
-        <v>5.074186723905194</v>
+        <v>5.773287861640356</v>
       </c>
       <c r="O14">
-        <v>9.705749647170245</v>
+        <v>13.61419505122115</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.561133657220424</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.789483261386662</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.15688450360643</v>
+        <v>15.06186873418324</v>
       </c>
       <c r="C15">
-        <v>9.438697999530374</v>
+        <v>9.743884391511541</v>
       </c>
       <c r="D15">
-        <v>2.447170074899501</v>
+        <v>2.576872699524387</v>
       </c>
       <c r="E15">
-        <v>4.836230226052447</v>
+        <v>5.483502553284816</v>
       </c>
       <c r="F15">
-        <v>38.61209321235542</v>
+        <v>29.77100682978269</v>
       </c>
       <c r="G15">
-        <v>2.158043193902812</v>
+        <v>13.06529725380985</v>
       </c>
       <c r="H15">
-        <v>8.053991784062545</v>
+        <v>7.642496829985775</v>
       </c>
       <c r="I15">
-        <v>5.183082225032988</v>
+        <v>4.395930131262823</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.97605915178481</v>
+        <v>20.56924280048356</v>
       </c>
       <c r="L15">
-        <v>5.583992950083288</v>
+        <v>14.87633901339255</v>
       </c>
       <c r="M15">
-        <v>13.42413411615981</v>
+        <v>15.50730259104006</v>
       </c>
       <c r="N15">
-        <v>5.023080354897553</v>
+        <v>5.786480040617077</v>
       </c>
       <c r="O15">
-        <v>9.634105800020722</v>
+        <v>13.56022621893993</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.503567744319207</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.703704327051693</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.71239571907711</v>
+        <v>14.51919941722173</v>
       </c>
       <c r="C16">
-        <v>9.117109284982778</v>
+        <v>9.784614326277721</v>
       </c>
       <c r="D16">
-        <v>2.479931482697502</v>
+        <v>2.268921831513336</v>
       </c>
       <c r="E16">
-        <v>4.746982411553402</v>
+        <v>5.46103850869198</v>
       </c>
       <c r="F16">
-        <v>38.25880308031041</v>
+        <v>30.85733818146477</v>
       </c>
       <c r="G16">
-        <v>2.161728799026172</v>
+        <v>11.67585138133785</v>
       </c>
       <c r="H16">
-        <v>7.962125583119771</v>
+        <v>7.499026796045123</v>
       </c>
       <c r="I16">
-        <v>5.333938821033996</v>
+        <v>4.493272258572703</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.83450751994122</v>
+        <v>21.32289368743525</v>
       </c>
       <c r="L16">
-        <v>5.535473856072954</v>
+        <v>15.49786978318595</v>
       </c>
       <c r="M16">
-        <v>13.06507116900063</v>
+        <v>16.01453828952996</v>
       </c>
       <c r="N16">
-        <v>5.01491362040994</v>
+        <v>5.746505498509547</v>
       </c>
       <c r="O16">
-        <v>9.491147651379181</v>
+        <v>13.2221260888539</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.504854529011529</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.515452893514295</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.41044322745991</v>
+        <v>14.16456549808517</v>
       </c>
       <c r="C17">
-        <v>8.919398050891459</v>
+        <v>9.783885888512277</v>
       </c>
       <c r="D17">
-        <v>2.528230483817308</v>
+        <v>2.105629765388303</v>
       </c>
       <c r="E17">
-        <v>4.635498913040871</v>
+        <v>5.401188750150904</v>
       </c>
       <c r="F17">
-        <v>39.21550178616782</v>
+        <v>32.17501875902255</v>
       </c>
       <c r="G17">
-        <v>2.163623823690575</v>
+        <v>11.4293073785722</v>
       </c>
       <c r="H17">
-        <v>7.416535237770407</v>
+        <v>6.891864378387415</v>
       </c>
       <c r="I17">
-        <v>5.40991843691432</v>
+        <v>4.544876486122223</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>27.5248474536235</v>
+        <v>22.17933280746159</v>
       </c>
       <c r="L17">
-        <v>5.490417960488159</v>
+        <v>16.19173958576743</v>
       </c>
       <c r="M17">
-        <v>12.82419091457459</v>
+        <v>16.61429064858646</v>
       </c>
       <c r="N17">
-        <v>5.122014366178453</v>
+        <v>5.686981512786886</v>
       </c>
       <c r="O17">
-        <v>9.506629314145933</v>
+        <v>12.99291797147383</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.634489606098438</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.519354974270177</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.20361784925414</v>
+        <v>13.92878256690734</v>
       </c>
       <c r="C18">
-        <v>8.796511607375725</v>
+        <v>9.811595496154579</v>
       </c>
       <c r="D18">
-        <v>2.611006904190185</v>
+        <v>1.973752025369095</v>
       </c>
       <c r="E18">
-        <v>4.544479064444543</v>
+        <v>5.347714039994198</v>
       </c>
       <c r="F18">
-        <v>41.51380609186132</v>
+        <v>34.17516134838236</v>
       </c>
       <c r="G18">
-        <v>2.164069903072463</v>
+        <v>11.35999872797604</v>
       </c>
       <c r="H18">
-        <v>6.492431506892153</v>
+        <v>5.882082851170586</v>
       </c>
       <c r="I18">
-        <v>5.41870435124797</v>
+        <v>4.548216852229477</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.10350181532178</v>
+        <v>23.44643243364868</v>
       </c>
       <c r="L18">
-        <v>5.482939766365932</v>
+        <v>17.19646299643846</v>
       </c>
       <c r="M18">
-        <v>12.65692795152057</v>
+        <v>17.52885888269991</v>
       </c>
       <c r="N18">
-        <v>5.356398759893565</v>
+        <v>5.636335638229387</v>
       </c>
       <c r="O18">
-        <v>9.656291344546517</v>
+        <v>12.85217663805399</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.90739256442314</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.681098031390025</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08478794987238</v>
+        <v>13.79930378148221</v>
       </c>
       <c r="C19">
-        <v>8.771387189431499</v>
+        <v>9.913791443435652</v>
       </c>
       <c r="D19">
-        <v>2.725086885934893</v>
+        <v>1.86846661062876</v>
       </c>
       <c r="E19">
-        <v>4.556686235848398</v>
+        <v>5.376187611419668</v>
       </c>
       <c r="F19">
-        <v>44.59105650837494</v>
+        <v>36.57232714423263</v>
       </c>
       <c r="G19">
-        <v>2.163266080967527</v>
+        <v>11.25386073785748</v>
       </c>
       <c r="H19">
-        <v>5.507988801886147</v>
+        <v>4.797306251905562</v>
       </c>
       <c r="I19">
-        <v>5.382328881069955</v>
+        <v>4.525246113991634</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>31.20669120413898</v>
+        <v>24.95779676901261</v>
       </c>
       <c r="L19">
-        <v>5.561145160002684</v>
+        <v>18.37885394681869</v>
       </c>
       <c r="M19">
-        <v>12.5673122513247</v>
+        <v>18.63596977624347</v>
       </c>
       <c r="N19">
-        <v>5.705478426310619</v>
+        <v>5.642243064793248</v>
       </c>
       <c r="O19">
-        <v>9.903357817290923</v>
+        <v>12.80655640134118</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.30503101398932</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.955281058868227</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.23479950021658</v>
+        <v>13.98492176429497</v>
       </c>
       <c r="C20">
-        <v>8.974068306963538</v>
+        <v>10.19197465149924</v>
       </c>
       <c r="D20">
-        <v>2.926570570118893</v>
+        <v>1.871398792998747</v>
       </c>
       <c r="E20">
-        <v>4.836080869947102</v>
+        <v>5.640895385270792</v>
       </c>
       <c r="F20">
-        <v>49.90520567959331</v>
+        <v>40.13696442441987</v>
       </c>
       <c r="G20">
-        <v>2.158915224220125</v>
+        <v>10.98634472892855</v>
       </c>
       <c r="H20">
-        <v>4.589259507152074</v>
+        <v>3.833255780219888</v>
       </c>
       <c r="I20">
-        <v>5.195705445591722</v>
+        <v>4.399206146123082</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>34.8332154485276</v>
+        <v>27.17781717749416</v>
       </c>
       <c r="L20">
-        <v>5.85779094111546</v>
+        <v>20.04184036971276</v>
       </c>
       <c r="M20">
-        <v>12.69448184843085</v>
+        <v>20.33290031544177</v>
       </c>
       <c r="N20">
-        <v>6.330812683716602</v>
+        <v>5.785646128725962</v>
       </c>
       <c r="O20">
-        <v>10.40200788984739</v>
+        <v>13.02840683357119</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.005606043929129</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.51977210242922</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.02229849411538</v>
+        <v>14.95484201029421</v>
       </c>
       <c r="C21">
-        <v>9.575378789731964</v>
+        <v>10.08396913431399</v>
       </c>
       <c r="D21">
-        <v>2.933718833675553</v>
+        <v>2.370632288859267</v>
       </c>
       <c r="E21">
-        <v>5.024604679335851</v>
+        <v>5.890404693367868</v>
       </c>
       <c r="F21">
-        <v>52.09432944042723</v>
+        <v>38.69986980292823</v>
       </c>
       <c r="G21">
-        <v>2.15153937054284</v>
+        <v>14.06996539148214</v>
       </c>
       <c r="H21">
-        <v>4.224523478065239</v>
+        <v>3.591852421465805</v>
       </c>
       <c r="I21">
-        <v>4.894743546658624</v>
+        <v>4.221977765848388</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>36.19306853170314</v>
+        <v>26.01527185005736</v>
       </c>
       <c r="L21">
-        <v>6.000876457132907</v>
+        <v>18.96313903453099</v>
       </c>
       <c r="M21">
-        <v>13.33616134656137</v>
+        <v>19.66043980032301</v>
       </c>
       <c r="N21">
-        <v>6.545968033469589</v>
+        <v>5.818371252358874</v>
       </c>
       <c r="O21">
-        <v>10.7994954682478</v>
+        <v>13.62479794224647</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.224471799725579</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.01681619072358</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.5263250760608</v>
+        <v>15.5771065547702</v>
       </c>
       <c r="C22">
-        <v>9.941076145073508</v>
+        <v>9.964410396052644</v>
       </c>
       <c r="D22">
-        <v>2.935545025903718</v>
+        <v>2.815255434222956</v>
       </c>
       <c r="E22">
-        <v>5.130117456468389</v>
+        <v>6.05668224505609</v>
       </c>
       <c r="F22">
-        <v>53.36917621114878</v>
+        <v>37.53940015113367</v>
       </c>
       <c r="G22">
-        <v>2.146857988394328</v>
+        <v>17.72001088549508</v>
       </c>
       <c r="H22">
-        <v>4.001028517518171</v>
+        <v>3.446064830596018</v>
       </c>
       <c r="I22">
-        <v>4.69697606253949</v>
+        <v>4.099629252372231</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>36.98515539209035</v>
+        <v>25.12699108316883</v>
       </c>
       <c r="L22">
-        <v>6.080688441078189</v>
+        <v>18.18119907938822</v>
       </c>
       <c r="M22">
-        <v>13.81091675767063</v>
+        <v>19.11235693925374</v>
       </c>
       <c r="N22">
-        <v>6.651411263887661</v>
+        <v>5.831899612852739</v>
       </c>
       <c r="O22">
-        <v>11.03374074666489</v>
+        <v>13.98794813187192</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.328885968756417</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.31360457871428</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.26236829574756</v>
+        <v>15.23536441796305</v>
       </c>
       <c r="C23">
-        <v>9.731669202587652</v>
+        <v>10.10089683299082</v>
       </c>
       <c r="D23">
-        <v>2.943710575976179</v>
+        <v>2.492424867980148</v>
       </c>
       <c r="E23">
-        <v>5.074060316648554</v>
+        <v>5.951292056688325</v>
       </c>
       <c r="F23">
-        <v>52.7941721961076</v>
+        <v>38.55672950447907</v>
       </c>
       <c r="G23">
-        <v>2.149303465311101</v>
+        <v>15.04399017671533</v>
       </c>
       <c r="H23">
-        <v>4.117699078756488</v>
+        <v>3.517726623792707</v>
       </c>
       <c r="I23">
-        <v>4.792769226473809</v>
+        <v>4.149667215799383</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>36.644365115011</v>
+        <v>25.86777477592967</v>
       </c>
       <c r="L23">
-        <v>6.042384077909755</v>
+        <v>18.7969827132388</v>
       </c>
       <c r="M23">
-        <v>13.54960497867539</v>
+        <v>19.60822689264922</v>
       </c>
       <c r="N23">
-        <v>6.590493781583493</v>
+        <v>5.832159189730325</v>
       </c>
       <c r="O23">
-        <v>10.90641103445026</v>
+        <v>13.81302188437931</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.271570672208133</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.14734021375845</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.22010016092294</v>
+        <v>13.96878809385163</v>
       </c>
       <c r="C24">
-        <v>8.940328165835714</v>
+        <v>10.17991558590927</v>
       </c>
       <c r="D24">
-        <v>2.957466522727831</v>
+        <v>1.863646549764059</v>
       </c>
       <c r="E24">
-        <v>4.858924183677488</v>
+        <v>5.662043143791252</v>
       </c>
       <c r="F24">
-        <v>50.39255452774004</v>
+        <v>40.5401821359033</v>
       </c>
       <c r="G24">
-        <v>2.158785426720661</v>
+        <v>10.95822236061365</v>
       </c>
       <c r="H24">
-        <v>4.570756658638333</v>
+        <v>3.81618928359396</v>
       </c>
       <c r="I24">
-        <v>5.177942959735936</v>
+        <v>4.379802089678779</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.18956929427561</v>
+        <v>27.45610496479121</v>
       </c>
       <c r="L24">
-        <v>5.887523915468174</v>
+        <v>20.26007739775156</v>
       </c>
       <c r="M24">
-        <v>12.67320503873763</v>
+        <v>20.53563115412452</v>
       </c>
       <c r="N24">
-        <v>6.364777266580428</v>
+        <v>5.803287542290199</v>
       </c>
       <c r="O24">
-        <v>10.41973962209965</v>
+        <v>13.01485999557438</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.046083681143456</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.54050048937598</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01763519654639</v>
+        <v>12.66496209006931</v>
       </c>
       <c r="C25">
-        <v>8.037809478498158</v>
+        <v>9.230815346163116</v>
       </c>
       <c r="D25">
-        <v>2.967678839894581</v>
+        <v>1.79218042731265</v>
       </c>
       <c r="E25">
-        <v>4.620663121295866</v>
+        <v>5.495437802258021</v>
       </c>
       <c r="F25">
-        <v>47.68469480425542</v>
+        <v>39.02879879151077</v>
       </c>
       <c r="G25">
-        <v>2.169352071051615</v>
+        <v>12.04337422722706</v>
       </c>
       <c r="H25">
-        <v>5.076815786342821</v>
+        <v>4.21476586037115</v>
       </c>
       <c r="I25">
-        <v>5.609521511252745</v>
+        <v>4.699719347712357</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>33.55155331050154</v>
+        <v>26.75808615843609</v>
       </c>
       <c r="L25">
-        <v>5.713671732967626</v>
+        <v>20.01201449303901</v>
       </c>
       <c r="M25">
-        <v>11.70829707988562</v>
+        <v>19.74273557644952</v>
       </c>
       <c r="N25">
-        <v>6.116075438434451</v>
+        <v>5.70297982330309</v>
       </c>
       <c r="O25">
-        <v>9.877946211576965</v>
+        <v>11.8468729345184</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.771239787964412</v>
       </c>
       <c r="Q25">
+        <v>9.932557321646273</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
